--- a/Daily_Quiz_Log.xlsx
+++ b/Daily_Quiz_Log.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2808" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2808"/>
   </bookViews>
   <sheets>
     <sheet name="Upskill_New_Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Coding Challenge" sheetId="5" r:id="rId2"/>
     <sheet name="Daily Progress" sheetId="4" r:id="rId3"/>
-    <sheet name="Notes" sheetId="2" r:id="rId4"/>
-    <sheet name="Significance" sheetId="3" r:id="rId5"/>
+    <sheet name="Notes" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Significance" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Progress'!$A$1:$F$14</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -525,7 +525,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1)BRD1.334 / Cut-off-Category
+      <t xml:space="preserve">1)BRD1.334 / Cut-off-Category - Follow-up with Nurdiyana .
 Mapping confirmed for 3 LOS Source.  Pending 2 follow-up with CFS Team in-Progress. ETA: 30-Jul
 </t>
     </r>
@@ -550,7 +550,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+3)BRD2.418 / Credit Risk Density - Check Manual File for CHN/HK with Nikkhil</t>
     </r>
     <r>
       <rPr>
@@ -561,7 +561,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3)BRD2.418 / Credit Risk Density
+      <t xml:space="preserve">
 Mapping Confirmed on 25-Jul DST call with Guru. Source from IFRS_ACCT_SUMMARY (ECL/EAD group by d_mis_date)</t>
     </r>
     <r>
@@ -573,19 +573,36 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-4)BRD2.1399 / Islamic Contracts Type
+4)BRD2.1399 / Islamic Contracts Type - Check UDL where . Availlable at REDW DV_PROD
 Mapping Identification &amp; Profiling WIP .</t>
     </r>
   </si>
   <si>
-    <t>Pending 1&amp;4</t>
+    <t xml:space="preserve">Pending 1 ,3 &amp;4 </t>
+  </si>
+  <si>
+    <t>Python/Dataframes</t>
+  </si>
+  <si>
+    <t>1) using Lambda &amp; Dataframe to load sample dataset, add a new column 
+2) deriving Mean , Median , Mode &amp; Standard Deviation in Python</t>
+  </si>
+  <si>
+    <t>full-score problem</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>Analyzed the Python Code for CRD &amp; CRD Ratio(Loans) computation and concurred mapping for MY sourcing , referencing HKG OU as base
+FF-&gt;BIH--&gt;STG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,8 +626,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,6 +652,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -674,9 +712,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,20 +738,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,8 +806,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>640080</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5072,7 +5130,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
-            <a:t>*2 String comparison Comparisons</a:t>
+            <a:t>*1 String comparison Comparisons</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5198,13 +5256,444 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>file_size=10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>available_space=20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>restricted_name="example.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>file_name="hello.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t># TODO: Change comparison operator to check if file_size is less than or equal to available_space</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>[ $file_size -gt $available_space ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Is there enough space for the file? $?" # Expected output: Is there enough space for the file? 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t># TODO: Change comparison operator to check if restricted_name is equal to file_name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>[ "$restricted_name" != "$file_name" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Is the file name restricted? $?" # Expected output: Is the file name restricted? 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1653540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9044940" y="7612380"/>
+          <a:ext cx="1638300" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import pandas as pd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>df_ds_titanic=sns.load_dataset("titanic")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>df2=pd.DataFrame({</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "survived":[1],"pclass":[3],"sex":["male"],"age":[32],"sibsp":[0],"parch":[0],"fare":[7.75],"embarked":["Q"],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "class":["Third"],"who":["man"],"adult_male":[True],"deck":[None],"embark_town":["Queenstown"],"alive":["Yes"],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "alone":[True],"IsChild":["No"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    })</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>func_ischild=lambda age:"Yes" if(age&lt;18) else "No"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#main execution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>print(df_ds_titanic.head(5))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>df_ds_titanic["IsChild"]=df_ds_titanic["age"].apply(func_ischild)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>print(df_ds_titanic)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10858500" y="7627620"/>
+          <a:ext cx="1691640" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*1) Standard Deviation using Numpy , Mean/Median/Mode using Dataframe</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
             <a:t>#import</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
-            <a:t>#!/bin/bash</a:t>
+            <a:t>import pandas as pd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import numpy as np</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5216,73 +5705,61 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
-            <a:t>file_size=10</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>available_space=20</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>restricted_name="example.txt"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>file_name="hello.txt"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>#main execution</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>[ $file_size -le $available_space ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>echo "Is there enough space for the file? $?"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>[ "$restricted_name" == "$file_name" ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>echo "Is the File Name restricted? $?"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>#output</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>Is there enough space for the file? 0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>Is the File Name restricted? 1</a:t>
+            <a:t>titanic_df=sns.load_dataset("titanic)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_mean_age=titanic_df["age"].mean()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_median_age=titanic_df["age"].median()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_mode_age=titanic_df["age"].mode()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_std=np.std(titanic_df['age'])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("Mean age:",var_mean_age)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("Median age:",var_median_age)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("Mode age:",var_mode_age)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("Standard Deviation is : {var_std}")</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5930,6 +6407,202 @@
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
             <a:t>;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="822960"/>
+          <a:ext cx="2186940" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>select hacker_id , name from (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>with CTE_multipl_top_score as (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>select </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>submission_id,hacker_id,challenge_id , max_score , high_score,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>case when max(high_score) over(partition by hacker_id )&gt;1 then 'Y' else 'N' end chk_flg</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>select submission_id, hacker_id,challenge_id ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>max(score) over(partition by hacker_id,submission_id,challenge_id) max_score,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>case when score=120 then </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>row_number() over(partition by hacker_id order by submission_id,challenge_id,score)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>else 0 end high_score</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>submissions </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>where score=120</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>) submn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>select  distinct b.hacker_id, b.name , a.high_score</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>CTE_multipl_top_score a </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>inner join hackers b on a.hacker_id=b.hacker_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>where chk_flg='Y' </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>order by a.high_Score desc,b.hacker_id asc </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>);</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6202,317 +6875,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="99" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>45589</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
         <v>45590</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>45591</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
         <v>45592</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
         <v>45593</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>45751</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>45755</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>45819</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>45854</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="25">
         <v>45855</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="25">
         <v>45856</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <v>45859</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="25">
         <v>45860</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="25">
         <v>45861</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="28" t="s">
         <v>140</v>
       </c>
+      <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>45862</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="28" t="s">
         <v>144</v>
       </c>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="31">
         <v>45863</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="34" t="s">
         <v>145</v>
       </c>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="25">
         <v>45864</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="25">
         <v>45865</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>45866</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6537,8 +7229,8 @@
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>640080</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>121920</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6554,10 +7246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6582,18 +7274,18 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>45865</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -6603,19 +7295,36 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>45866</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>45866</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6625,11 +7334,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6642,39 +7351,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>45726</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>45717</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6682,19 +7391,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>45727</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>45717</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -6702,10 +7411,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>45728</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>45717</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -6722,10 +7431,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>45729</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>45717</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -6738,28 +7447,28 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>45733</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>45717</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>45733</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>45717</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -6772,10 +7481,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>45733</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>45717</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6790,19 +7499,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>45734</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>45717</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6810,16 +7519,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>45735</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>45717</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1"/>
@@ -6828,17 +7537,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>45735</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>45717</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6846,19 +7555,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>45736</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>45717</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -6866,16 +7575,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>45737</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>45717</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -6886,16 +7595,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>45740</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>45717</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -6906,13 +7615,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>45741</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>45717</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="1"/>
@@ -6920,13 +7629,13 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>45743</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>45717</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="1"/>
@@ -6934,13 +7643,13 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>45744</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>45717</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="1"/>
@@ -6952,13 +7661,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>45744</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>45717</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="1"/>
@@ -6970,49 +7679,49 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>45749</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>45748</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>45749</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>45748</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>45750</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>45748</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -7020,33 +7729,33 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>45754</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>45748</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>82</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>45756</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>45748</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -7054,17 +7763,17 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>45757</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>45748</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -7072,17 +7781,17 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>45758</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>45748</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -7090,33 +7799,33 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>45761</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>45748</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>45762</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>45748</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>96</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -7124,332 +7833,332 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>45852</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>45839</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>45852</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>45839</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>45853</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>45839</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>45853</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>45839</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>45854</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>45839</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>45854</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>45839</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>45854</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>45839</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>117</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="18" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>45855</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>45839</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>45855</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>45839</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>45856</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>45839</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>129</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>45856</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>45839</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>45859</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>45839</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>45859</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>45839</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>137</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>45861</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>45839</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>45861</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>45839</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>45861</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>45839</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>45862</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>45839</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>153</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>45863</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>45839</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>155</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7457,17 +8166,33 @@
       <c r="A46" s="2">
         <v>45863</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="20">
         <v>45839</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="19" t="s">
         <v>157</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>45867</v>
+      </c>
+      <c r="B47" s="11">
+        <v>45839</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7483,7 +8208,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7568,13 +8293,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>45614</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Daily_Quiz_Log.xlsx
+++ b/Daily_Quiz_Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2808" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upskill_New_Topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="169">
   <si>
     <t>Date</t>
   </si>
@@ -584,10 +584,6 @@
     <t>Python/Dataframes</t>
   </si>
   <si>
-    <t>1) using Lambda &amp; Dataframe to load sample dataset, add a new column 
-2) deriving Mean , Median , Mode &amp; Standard Deviation in Python</t>
-  </si>
-  <si>
     <t>full-score problem</t>
   </si>
   <si>
@@ -596,6 +592,30 @@
   <si>
     <t>Analyzed the Python Code for CRD &amp; CRD Ratio(Loans) computation and concurred mapping for MY sourcing , referencing HKG OU as base
 FF-&gt;BIH--&gt;STG</t>
+  </si>
+  <si>
+    <t>1) using Lambda &amp; Dataframe to load sample dataset, add a new column 
+2) deriving Mean , Median , Mode &amp; Standard Deviation in Python using Numpy
+3) computing Quantile , Percentile using both Numpy and Pandas</t>
+  </si>
+  <si>
+    <t>Python/Dataframes/Quantile/Percentile
+/Standard Deviation</t>
+  </si>
+  <si>
+    <t>Cut-Off Category DE for BCBS DE#334 - Mortgage WOLOC (HS/SHL/OML) , Auto-HPS(Model_1:100,110,120) clarification reverted to Nurdiyana</t>
+  </si>
+  <si>
+    <t>Pending clarify with her</t>
+  </si>
+  <si>
+    <t>EZYPAY Cardlink Issue . Multiple Accounts under same Card due to multiple installments of Payment. Fix Handled with linkage to AGMT_DT to identify based on qualify latest ITEM_PRICE based on latest REFJ Date from Mainframes Cardlink Source</t>
+  </si>
+  <si>
+    <t>Code Fixed and handed over to BAU</t>
+  </si>
+  <si>
+    <t>Prod Run Pending</t>
   </si>
 </sst>
 </file>
@@ -702,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -775,6 +795,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5760,6 +5783,392 @@
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
             <a:t>print("Standard Deviation is : {var_std}")</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12702540" y="6126480"/>
+          <a:ext cx="2179320" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import pandas as pd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_titanic_ds=sns.load_dataset["titanic"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>q1_age_np=np.percentile(df_titanic_ds["age"].dropna(),25)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>q3_age_np=np.percentile(df_titanic_ds["age"].dropna(),75)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>q1_age_pd=df_titanic_ds["age"].quantile(0.25)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>q3_age_pd=df_titanic_Ds["age"].quantile(0.75)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"First Quartile of age through Numpy: {q1_age_np}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"Third Quartile of age through Numpy: {q3_age_np})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"First Quartile of age through Pandas: {q1_age_pd}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"First Quartile of age through Pandas: {q3_age_pd}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1935480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>670560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9288780" y="6431280"/>
+          <a:ext cx="1676400" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import pandas as pd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_titanic=sns.load_dataset("titanic")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_mean_fare=df_titanic["fare"].mean()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_median_fare=df_titanic["fare"].median()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_mode_fare=df_titanic["fare"].mode()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_std_fare=np.std(df_titanic["fare"])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_q1_quartile=df_titanic["fare"].quantile(0.25)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_q2_quartile=df_titanic["fare"].quantile(0.75)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"Mean fare was : {var_mean_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"Median fare was : {var_median_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"Mode fare was : {var_mode_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"Standard Deviation is :{var_std_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"First Quartile of the Fare:{var_q1_quartile}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"Second Quartile of the Fare: {var_q2_quartile}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Output </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Mean fare was : 32.204207968574636</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Median fare was : 14.4542</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Mode fare was : 0    8.05</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Name: fare, dtype: float64</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Standard Deviation is :49.6655344447741</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>First Quartile of the Fare:7.9104</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Second Quartile of the Fare: 31.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>values, ``` ``` , print(value, ..., sep=' ', end='\\n', file=sys.stdout, flush=False) Prints the values to a stream, or to sys.stdout by default. Optional keyword arguments: file:  a file-like object (stream); defaults to the current sys.stdout. sep:   string inserted between values, default a space. end:   string appended after the last value, default a newline. flush: whether to forcibly flush the stream., hint</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6875,11 +7284,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7201,10 +7610,25 @@
         <v>119</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
+        <v>45869</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7249,7 +7673,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7311,7 +7735,7 @@
     </row>
     <row r="4" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>85</v>
@@ -7320,10 +7744,10 @@
         <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7334,11 +7758,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8188,11 +8612,49 @@
         <v>45839</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>45868</v>
+      </c>
+      <c r="B48" s="11">
+        <v>45839</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B49" s="11">
+        <v>45839</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Daily_Quiz_Log.xlsx
+++ b/Daily_Quiz_Log.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -616,6 +616,24 @@
   </si>
   <si>
     <t>Prod Run Pending</t>
+  </si>
+  <si>
+    <t>Shell/String &amp; Numeric Comparison</t>
+  </si>
+  <si>
+    <t>Control Structures / Logical Operators</t>
+  </si>
+  <si>
+    <t>Design Connect with BCBS DADT Pic &amp; BCBS Dev Team to clarify Lima , LOS Layers</t>
+  </si>
+  <si>
+    <t>from LeetCode</t>
+  </si>
+  <si>
+    <t>read an input file and identify valid &amp; invalid phone Numbers each line</t>
+  </si>
+  <si>
+    <t>(continue) Cut-Off Category DE for BCBS DE#334 - discussed in-person at Level-9/Menara with Nurdiyana . Blaze(Thong) can provide the final File containing this computation</t>
   </si>
 </sst>
 </file>
@@ -6175,6 +6193,623 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2034540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9037320" y="7155180"/>
+          <a:ext cx="2026920" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>*1 String and Numeric Comparison in Shell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>size1=1024</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>size2=2048</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>name1="hello.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>name2="world.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>name3="hello.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#Int checks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ $size1 -eq $size2 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Size1 Same as Size2 : $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ $size1 -ne $size2 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Size1 Difference than Size2: $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ $size1 -gt $size2 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Size1 Greater than Size2: $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ $size1 -lt $size2 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Size1 Lesser than Size2: $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ $size1 -ge $size2 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Size1 greater than or equal to Size2: $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ $size1 -le $size2 ] </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Size1 Lesser than or equal to Size2: $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#String Checks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ "$name1" == "$name2" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Name1 equal to Name2: $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ "$name1" == "$name3" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Name1 equal to Name2: $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ "$name2" != "$name2" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Name1 not equal to Name2: $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ -z "$name1" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Name1 null : $?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>[ -n "$name1" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Is Name1 not a null : $?"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2621280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9022080" y="7536180"/>
+          <a:ext cx="2522220" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>I)Control Structures </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>if ,elif , else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>II)Logical Operators </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>AND(&amp;&amp;) , OR(||)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>if [condition_1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>then </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#command if condition_1 is True</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>elif [condition_2]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>then </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#command if condition_2 is True</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#command if both condition_1 and condition_2 are False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>fi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>*1 Control Structures </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>number=5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>if[ $number -lt 0 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>then </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "$number is Negative"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>elif [$number -gt 0 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>then </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "$number is Positive"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "$number is Zero"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>fi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "program ended"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>*2 Logical Operators</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>num1=10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>num2=20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>str1="Hello"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>str2="World"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#define </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>if[ $num1 -lt $num2 ] &amp;&amp; [ "$str1" != "$str2" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>then </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "$num1 is less than $num2 and $str1 is not equal to $str2"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Condition is False"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>fi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>echo "Program Ends"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7016,6 +7651,276 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6355080" y="1242060"/>
+          <a:ext cx="2750820" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t># Read from the file file.txt and output all valid phone numbers to stdout.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>input_file="file.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_reg_exp_pattern="^\\d{3}-\\d{3}-\\d{4}|\\(\\d{3}\\) \\d{3}-\\d{4}$"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>while IFS= read -r line </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if [[ $line = ~$var_reg_exp_pattern ]]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    echo "$line"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>done &lt; "$input_file"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-MY" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>216688</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>396239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205739</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9254008" y="1226819"/>
+          <a:ext cx="3037051" cy="327661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7284,11 +8189,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7629,6 +8534,33 @@
         <v>162</v>
       </c>
       <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
+        <v>45870</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
+        <v>45871</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7670,19 +8602,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
     <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7701,6 +8634,7 @@
       <c r="E1" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
@@ -7732,6 +8666,7 @@
         <v>151</v>
       </c>
       <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -7746,9 +8681,26 @@
       <c r="D4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>160</v>
       </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>45873</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7758,17 +8710,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142.109375" customWidth="1"/>
+    <col min="3" max="3" width="144.6640625" customWidth="1"/>
     <col min="4" max="4" width="98.77734375" customWidth="1"/>
     <col min="5" max="5" width="90.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
@@ -8655,6 +9607,38 @@
         <v>168</v>
       </c>
       <c r="F49" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>45870</v>
+      </c>
+      <c r="B50" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>45873</v>
+      </c>
+      <c r="B51" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="17" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Daily_Quiz_Log.xlsx
+++ b/Daily_Quiz_Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2808" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upskill_New_Topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -587,9 +587,6 @@
     <t>full-score problem</t>
   </si>
   <si>
-    <t>incomplete</t>
-  </si>
-  <si>
     <t>Analyzed the Python Code for CRD &amp; CRD Ratio(Loans) computation and concurred mapping for MY sourcing , referencing HKG OU as base
 FF-&gt;BIH--&gt;STG</t>
   </si>
@@ -634,6 +631,46 @@
   </si>
   <si>
     <t>(continue) Cut-Off Category DE for BCBS DE#334 - discussed in-person at Level-9/Menara with Nurdiyana . Blaze(Thong) can provide the final File containing this computation</t>
+  </si>
+  <si>
+    <t>1) deriving Mean , Median , Mode &amp; Standard Deviation in Python using Numpy
+2) computing Quantile , Percentile using both Numpy and Pandas</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Sorting and Filtering in DF</t>
+  </si>
+  <si>
+    <t>Created an Automated Pyspark code for checking the length of decimal datatypes</t>
+  </si>
+  <si>
+    <t>python/Dataframes</t>
+  </si>
+  <si>
+    <t>(continued) Control Structures / Logical Operators</t>
+  </si>
+  <si>
+    <t>Print Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Sorting Fruit Baskets</t>
+  </si>
+  <si>
+    <t>revisit</t>
+  </si>
+  <si>
+    <t>from Leetcode</t>
+  </si>
+  <si>
+    <t>print word frequency in descending order</t>
+  </si>
+  <si>
+    <t>Finalized Logic for all LOS Sources cutoff category to be sourced from BLAZE response XML File</t>
+  </si>
+  <si>
+    <t>Loops - while/for</t>
   </si>
 </sst>
 </file>
@@ -700,7 +737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -730,17 +767,28 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -749,12 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -803,19 +846,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6810,6 +6848,1440 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2613660</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2011680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9014460" y="7924800"/>
+          <a:ext cx="2026920" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>*1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t># Load the Titanic dataset</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>titanic_df = sns.load_dataset('titanic')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t># Calculate the mean, median, mode, and standard deviation for 'fare'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>mean_fare = titanic_df['fare'].mean()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>median_fare = titanic_df['fare'].median()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>mode_fare = titanic_df['fare'].mode()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>std_dev_fare = np.std(titanic_df['fare'])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>var_quartile_fare=titanic_df['fare'].quantile(0.25)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Mean fare: {mean_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Median fare: {median_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Mode fare: {mode_fare[0]}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Standard deviation of fare: {std_dev_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Quartile of 1st : {var_quartile_fare}")</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2606040</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9006840" y="8435340"/>
+          <a:ext cx="1965960" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>*Filtering and Sorting in Pandas Dataframes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import pandas as pd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>df_titanic=sns.load_dataset('titanic')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>var_survivors=df_titanic[df_titanic['survived']==1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(survivors.head())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(df_titanic.sort_values('age'))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(df_titanic.sort_Values(['age','pclass']),ascending=[False,True] )#multiple sort</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2613660</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2011680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9014460" y="7924800"/>
+          <a:ext cx="2026920" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>*1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t># Load the Titanic dataset</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>titanic_df = sns.load_dataset('titanic')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t># Calculate the mean, median, mode, and standard deviation for 'fare'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>mean_fare = titanic_df['fare'].mean()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>median_fare = titanic_df['fare'].median()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>mode_fare = titanic_df['fare'].mode()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>std_dev_fare = np.std(titanic_df['fare'])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>var_quartile_fare=titanic_df['fare'].quantile(0.25)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Mean fare: {mean_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Median fare: {median_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Mode fare: {mode_fare[0]}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Standard deviation of fare: {std_dev_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Quartile of 1st : {var_quartile_fare}")</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>518160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13312140" y="8427720"/>
+          <a:ext cx="1965960" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>*Filtering and Sorting in Pandas Dataframes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import pandas as pd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>df_titanic=sns.load_dataset('titanic')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>var_survivors=df_titanic[df_titanic['survived']==1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(survivors.head())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(df_titanic.sort_values('age'))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(df_titanic.sort_Values(['age','pclass']),ascending=[False,True] )#multiple sort</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11178540" y="8435340"/>
+          <a:ext cx="2026920" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>*1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t># Load the Titanic dataset</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>titanic_df = sns.load_dataset('titanic')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t># Calculate the mean, median, mode, and standard deviation for 'fare'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>mean_fare = titanic_df['fare'].mean()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>median_fare = titanic_df['fare'].median()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>mode_fare = titanic_df['fare'].mode()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>std_dev_fare = np.std(titanic_df['fare'])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>var_quartile_fare=titanic_df['fare'].quantile(0.25)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Mean fare: {mean_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Median fare: {median_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Mode fare: {mode_fare[0]}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Standard deviation of fare: {std_dev_fare}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print(f"Quartile of 1st : {var_quartile_fare}")</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="8641080"/>
+          <a:ext cx="2065020" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_dir_name="./downloads"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_file_name="code.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_available_mem=256</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_download_size=128</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if [ "$var_dir_name" != "./downloads" ] || [ $var_available_mem -lt $var_download_size ] </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then echo "Create directory or free up memory space."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>elif [ "$var_dir_name" = "./downloads" ] &amp;&amp; [ "$var_file_name" = "code.txt" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then echo "File name already taken."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>elif [ "$var_dir_name" = "./downloads" ] &amp;&amp; [ "$var_file_name" != "code.txt" ]  &amp;&amp; [ $var_available_mem -gt $var_download_size ] </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then echo "Starting Download."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else echo "Not Enough Memory"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="9151620"/>
+          <a:ext cx="2095500" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*1 Array</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>computers=("Dell" "HP" "Lenovo")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>computers+=("Mac")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Number of Computers : ${#computers[@]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Total Number of Computers : ${computers[@]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "First Computer is ${computers[0]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Second Computer is ${computers[1]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#output </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Number of computers: 4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>All computers: Dell HP Lenovo Mac</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>The first computer is: Dell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>The second computer is: HP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11170920" y="9159240"/>
+          <a:ext cx="2019300" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*2 loops</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#while loop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>counter=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>while [ $counter -le 3 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>	echo "Counter : $counter"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>	((counter++))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#for loop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>computers = ("Dell" "HP" "Lenovo")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>for computers in "${computers[@]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>	echo "$computer"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6817,16 +8289,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3360420</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1470660</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6835,7 +8307,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4221480" y="182880"/>
+          <a:off x="5768340" y="160020"/>
           <a:ext cx="1973580" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7197,16 +8669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7215,7 +8687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8473440" y="0"/>
+          <a:off x="7078980" y="99060"/>
           <a:ext cx="1699260" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7661,10 +9133,10 @@
       <xdr:rowOff>411480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1988820</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7673,8 +9145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6355080" y="1242060"/>
-          <a:ext cx="2750820" cy="228600"/>
+          <a:off x="7078980" y="1242060"/>
+          <a:ext cx="1905000" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7709,63 +9181,119 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># Read from the file file.txt and output all valid phone numbers to stdout.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>input_file="file.txt"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>var_reg_exp_pattern="^\\d{3}-\\d{3}-\\d{4}|\\(\\d{3}\\) \\d{3}-\\d{4}$"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>while IFS= read -r line </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_inp_file="file.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_reg_exp1="^\([0-9]{3}\) [0-9]{3}-[0-9]{4}$"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_reg_exp2="^[0-9]{3}-[0-9]{3}-[0-9]{4}$"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>while IFS= read -r line</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7779,49 +9307,35 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if [[ $line = ~$var_reg_exp_pattern ]]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>then </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    echo "$line"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if [[ "$line" =~ $var_reg_exp1 ]] || [[ "$line" =~ $var_reg_exp2 ]]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then echo $line</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7835,51 +9349,31 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>done &lt; "$input_file"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-MY" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-MY" sz="800" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>done &lt; "$var_inp_file"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#main execute</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7888,15 +9382,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>216688</xdr:colOff>
+      <xdr:colOff>110008</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>396239</xdr:rowOff>
+      <xdr:rowOff>259079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26059</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7913,14 +9407,1731 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9254008" y="1226819"/>
-          <a:ext cx="3037051" cy="327661"/>
+          <a:off x="9871228" y="1089659"/>
+          <a:ext cx="3672711" cy="320041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>48988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1874520</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9860280" y="1489168"/>
+          <a:ext cx="1775460" cy="263432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4579620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>929640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6987540" y="1463040"/>
+          <a:ext cx="937260" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>my solution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_list_fruits=[4,2,5]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_list_baskets=[3,5,4]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Solution:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def numOfUnplacedFruits(self, fruits: List[int], baskets: List[int]) -&gt; int:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        is_placed= False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        unplaced_count= 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        basket_status=np.zeros(len(baskets),dtype=bool)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        for fruit in fruits:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            for basket_pos in range(len(baskets)):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                if not basket_status[basket_pos] and (fruit&lt;=baskets[basket_pos]):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                     is_placed= True </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                     basket_status[basket_pos]= True</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                     break</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            if not is_placed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                unplaced_count+=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return unplaced_count</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inst_sol=Solution()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result=inst_sol.numOfUnplacedFruits(var_list_fruits,var_list_baskets)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>print(f"Unplaced Fruit Count:{result}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2026920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016240" y="1501140"/>
+          <a:ext cx="1005840" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" u="sng"/>
+            <a:t>working solution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from typing import List</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_list_fruits=[4,2,5]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_list_baskets=[3,5,4]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>class Solution:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    def numOfUnplacedFruits(self, fruits: List[int], baskets: List[int]) -&gt; int:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>        unplaced_count = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>        # We need a copy to track basket availability, preserving the original order.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>        basket_status = np.zeros(len(baskets), dtype=bool)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>        # Iterate through each fruit to place it</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>        for fruit in fruits:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>            is_placed = False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>            # Iterate through the baskets from left to right to find the leftmost available one</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>            for i in range(len(baskets)):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>                # Check if the basket is available AND has enough capacity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>                if not basket_status[i] and baskets[i] &gt;= fruit:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>                    basket_status[i] = True  # Mark this basket as used</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>                    is_placed = True</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>                    break  # Stop searching for a basket for this fruit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>            </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>            # If we went through all baskets and the fruit was not placed, increment the counter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>            if not is_placed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>                unplaced_count += 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>                </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>        return unplaced_count</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>inst_sol = Solution()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>result = inst_sol.numOfUnplacedFruits(var_list_fruits, var_list_baskets)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(f"Unplaced Fruit Count: {result}")</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4579620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6987540" y="1836420"/>
+          <a:ext cx="845820" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_inprows=3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Solution:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def generate(self, numRows: int) -&gt; list:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        #declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        var_arr_init=[]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        var_arr_idx=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        for i in range(1,var_inprows+1):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            if[ i==1 ] :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                row=[1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            else :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                row=[1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                prev_row=[var_arr_init[-1]]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                for j in range(1,i):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    row.append(prev_row[j-1]+prev_row[j])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                row.append(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            var_arr_init.append(row)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return var_arr_init</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inst_generate=Solution()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inst_generate.generate(var_inprows)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1808595</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>472440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9822180" y="1824347"/>
+          <a:ext cx="1747635" cy="461653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4579620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6987540" y="1836420"/>
+          <a:ext cx="845820" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_inp_file="words.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cat "$var_inp_file" | tr -s '[:space:]' '\n' | sort | uniq -c | sort -nr | awk '{print $2, $1}'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#main execution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1940560</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11379200" y="16875760"/>
+          <a:ext cx="1940560" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" u="sng"/>
+            <a:t>V1 : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from pyspark.sql import SparkSession</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from pyspark.sql.window import Window</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from pyspark.sql.functions import col,lit,max,length</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>spark=SparkSession.builder.appName("Measure_Length_Check").getOrCreate()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_select_expr=["n_mis_date_skey"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_lst_inp_columns=["N_INT_INCOME_AMT_RCY", "N_INT_EXPENSE_AMT", "N_NET_INTEREST_INCOME_RCY"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_table=spark.table("df_udl_sit.FCT_FTP_ACCT_ALT_MEASURES")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>for column_name in var_lst_inp_columns:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    var_max_exprsn=Window.partitionBy("n_mis_date_skey")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    var_max_exprsn_fnl=max(col(column_name)).over(var_max_exprsn).alias(f"max_n_int_{column_name}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    var_len_max_exprsn_fnl = length(max(col(column_name)).over(var_max_exprsn).cast("string")).alias(f"len_highest_{column_name}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("****Begin Execute*****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_table.select("*",var_max_exprsn_fnl,var_len_max_exprsn_fnl)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_table_final=df_table.distinct().filter(col("n_mis_date_skey")==20240831)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#df_table_final.show(n=5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("****File Output Export Being****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_table_final.coalesce(1).write.mode("overwrite").option("header","true").csv("file:///u12/LDW/Data/Scripts/Aman/len_check_outbound/Measure_Length_Check.csv")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("****File Output Export End****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>spark.stop()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4378960</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563600" y="16875760"/>
+          <a:ext cx="2194560" cy="345440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="1" u="sng"/>
+            <a:t>V2 :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="1" u="none"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>from pyspark.sql import SparkSession</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>from pyspark.sql.window import Window</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>from pyspark.sql.functions import col,lit,max,length</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>spark=SparkSession.builder.appName("Measure_Length_Check").config("spark.blacklist.enabled","false").getOrCreate()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>var_select_expr=[]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>var_lst_inp_columns=["N_INT_INCOME_AMT_RCY", "N_INT_EXPENSE_AMT", "N_NET_INTEREST_INCOME_RCY"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>df_table=spark.table("df_udl_sit.FCT_FTP_ACCT_ALT_MEASURES").filter(col("n_mis_date_skey")==20240831)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>for column_name in var_lst_inp_columns:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>    var_max_exprsn=max(col(column_name)).alias(f"max_{column_name}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>    var_len_max_exprsn=length(max(col(column_name)).cast("string")).alias(f"len_hghst_{column_name}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>    var_select_expr.extend([var_max_exprsn,var_len_max_exprsn])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print("****Begin Execute*****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>df_table_final=df_table.groupBy("n_mis_date_skey").agg(*var_select_expr)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print("****File Output Export Being****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>df_table_final.coalesce(1).write.mode("overwrite").option("header","true").csv("/user/mbbsituser/testdir/Measure_Length_Check.csv")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print("****File Output Export End****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>spark.stop()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8189,11 +11400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:D24"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8206,360 +11417,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>45589</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>45590</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>45591</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>45592</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>45593</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="22">
         <v>45751</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>45755</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="22">
         <v>45819</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="22">
         <v>45854</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="22">
         <v>45855</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="22">
         <v>45856</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="22">
         <v>45859</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="22">
         <v>45860</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="22">
         <v>45861</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="22">
         <v>45862</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="22">
         <v>45863</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="A18" s="22">
         <v>45864</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="22">
         <v>45865</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="22">
         <v>45866</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="1"/>
+      <c r="D20" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="22">
         <v>45869</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>162</v>
+      <c r="D21" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="22">
         <v>45870</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="29" t="s">
+      <c r="B22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
+      <c r="A23" s="22">
         <v>45871</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>170</v>
+      <c r="D23" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>45874</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>45875</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>45876</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>45877</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -8602,10 +11870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8613,94 +11881,155 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="4" max="4" width="66.88671875" customWidth="1"/>
     <col min="5" max="5" width="29.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="31" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>45865</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
         <v>45866</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
         <v>45867</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
         <v>45873</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>45874</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>45876</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>45876</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8710,11 +12039,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8727,39 +12056,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>45726</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>45717</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -8767,19 +12096,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>45727</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>45717</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -8787,10 +12116,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>45728</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>45717</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -8807,10 +12136,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>45729</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>45717</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -8823,28 +12152,28 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>45733</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>45717</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>45733</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>45717</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -8857,10 +12186,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>45733</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>45717</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -8875,19 +12204,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>45734</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>45717</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -8895,16 +12224,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>45735</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>45717</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1"/>
@@ -8913,17 +12242,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>45735</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>45717</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -8931,19 +12260,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>45736</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>45717</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -8951,16 +12280,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>45737</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>45717</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -8971,16 +12300,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>45740</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>45717</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -8991,13 +12320,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>45741</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>45717</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="1"/>
@@ -9005,13 +12334,13 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="13">
         <v>45743</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="12">
         <v>45717</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="1"/>
@@ -9019,13 +12348,13 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>45744</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>45717</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="1"/>
@@ -9037,13 +12366,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>45744</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>45717</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="1"/>
@@ -9055,49 +12384,49 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>45749</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>45748</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>45749</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>45748</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>45750</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>45748</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -9105,33 +12434,33 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>45754</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>45748</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="15" t="s">
         <v>82</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>45756</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>45748</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -9139,17 +12468,17 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>45757</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>45748</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="14" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -9157,17 +12486,17 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>45758</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>45748</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="14" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -9175,33 +12504,33 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>45761</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>45748</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="18"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>45762</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>45748</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="15" t="s">
         <v>96</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -9209,332 +12538,332 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>45852</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="8">
         <v>45839</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>45852</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="8">
         <v>45839</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>45853</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>45839</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>45853</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>45839</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>45854</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>45839</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>45854</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="8">
         <v>45839</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="18" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>45854</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>45839</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>117</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="17" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>45855</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="8">
         <v>45839</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="14" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>45855</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>45839</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="14" t="s">
         <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>45856</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>45839</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>45856</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="8">
         <v>45839</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="14" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>45859</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="8">
         <v>45839</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>45859</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="8">
         <v>45839</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="14" t="s">
         <v>137</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>45861</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="8">
         <v>45839</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>45861</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="8">
         <v>45839</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>45861</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="8">
         <v>45839</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>45862</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="8">
         <v>45839</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="14" t="s">
         <v>153</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>45863</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="8">
         <v>45839</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="14" t="s">
         <v>155</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9542,29 +12871,29 @@
       <c r="A46" s="2">
         <v>45863</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="17">
         <v>45839</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="16" t="s">
         <v>157</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>45867</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="8">
         <v>45839</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>161</v>
+      <c r="C47" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -9573,79 +12902,112 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>45868</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="8">
         <v>45839</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>45869</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="8">
         <v>45839</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="E49" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>45870</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="8">
         <v>45870</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>45873</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="8">
         <v>45870</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>174</v>
+      <c r="C51" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="14" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>45875</v>
+      </c>
+      <c r="B52" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>45876</v>
+      </c>
+      <c r="B53" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="32" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9739,13 +13101,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>45614</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Daily_Quiz_Log.xlsx
+++ b/Daily_Quiz_Log.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="201">
   <si>
     <t>Date</t>
   </si>
@@ -671,6 +671,48 @@
   </si>
   <si>
     <t>Loops - while/for</t>
+  </si>
+  <si>
+    <t>(continued) Loops - while/for</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>Filtering , Sorting in Dataframe</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>combinations of a phone number</t>
+  </si>
+  <si>
+    <t>Revisit</t>
+  </si>
+  <si>
+    <t>Assisted BCBS team to finalize mapping for CCPT(C1/C2/C3) category wise Industrial Sector grouping from LOS sources</t>
+  </si>
+  <si>
+    <t>Written a Pyspark for Decimal datatype max length finding -recursive through UDL Metadata tables</t>
+  </si>
+  <si>
+    <t>(continued) Filtering , Sorting in Dataframe</t>
+  </si>
+  <si>
+    <t>Set-up Design discussion with Ahmed,Lynda to settle the stiff of Origination DE Sourcing for BCBS on 14-Aug</t>
+  </si>
+  <si>
+    <t>two-Sum Problem</t>
+  </si>
+  <si>
+    <t>Physicalization for SP2A-R3 in Progress for 31-Aug-2024 BD ..</t>
+  </si>
+  <si>
+    <t>BAU Validation for 12-Aug Deployment on SCAS_Final , Final_Me scripts for Bank GCIF/N_ACCT_TERM_DAYS change</t>
+  </si>
+  <si>
+    <t>Gave working plan for Lima CR's completion to Beena - two deployments planned on 12-Sep &amp; 08-Oct</t>
   </si>
 </sst>
 </file>
@@ -737,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -761,17 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -788,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -850,10 +881,7 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7919,7 +7947,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8085,7 +8113,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8276,6 +8304,730 @@
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
             <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9037320" y="8991600"/>
+          <a:ext cx="2133600" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_operating_systems=("Windows" "macOS" "Linux")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_idx=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "1) Starting While Loop"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>while [ $var_idx -le 2 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>  echo "Operating System is ${var_operating_systems[$var_idx]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>  ((var_idx++))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "2) Starting For Loop on range"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>for i in {0..2}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>  echo "Operating System is ${var_operating_systems[$i]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "3) Starting For Loop on Array"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>for j in "${var_operating_systems[@]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>  echo "Operating System is : $j"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11209020" y="8999220"/>
+          <a:ext cx="2065020" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>change below while loop to for loop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*1 while loop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_operating_systems=("Windows" "macOS" "Linux")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_idx=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>while [ $var_idx -lt ${#var_operating_systems[@]} ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    echo "Operating Systems : ${var_operating_systems[$var_idx]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    ((var_idx++))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*2 for loop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_operating_systems=("Windows" "macOS" "Linux")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>for i in "${var_operating_systems[@]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    echo "Operating Systems : $i"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13395960" y="8991600"/>
+          <a:ext cx="1722120" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_operating_systems=("Windows" "macOS" "Linux")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>for i in ${!var_operating_systems[@]}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>  echo "Operating System at index $i is : ${var_operating_systems[$i]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2613660</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9014460" y="9174480"/>
+          <a:ext cx="2278380" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*1 filter , sort in DF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import pandas as pd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_titanic=sns.load_dataset("titanic")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_titanic_elders=df_titanic[(df_titanic["age"]&gt;60)&amp;df_titanic["survived"]==1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_titanic_elders_sort=df_titanic_elders.sort_values(["fare"],ascending=[False])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(df_titanic_elders_sort.head(10))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*2 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import pandas as pd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import seaborn as sns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_titanic=sns.load_dataset("titanic")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_titanic_aboveforty=df_titanic[(df_titanic["class"]=="Third") &amp; (df_titanic["age"]&gt;40) &amp; (df_titanic["survived"]==1)]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_titanic_aboveforty_srtd=df_titanic_aboveforty.sort_values(["age"],ascending=[True])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print(df_titanic_aboveforty_srtd)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10236,7 +10988,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>#declare </a:t>
+            <a:t>#declare</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10250,7 +11002,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>var_inprows=3</a:t>
+            <a:t>var_inp_rows=3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10264,6 +11016,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>var_idx=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>#define</a:t>
           </a:r>
         </a:p>
@@ -10292,7 +11058,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    def generate(self, numRows: int) -&gt; list:</a:t>
+            <a:t>    def generate(self, numRows : int) -&gt; list:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10306,7 +11072,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        #declare</a:t>
+            <a:t>        arr_inp=[]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10320,7 +11086,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        var_arr_init=[]</a:t>
+            <a:t>        for var_idx in range(numRows):</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10334,7 +11100,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        var_arr_idx=0</a:t>
+            <a:t>            if(var_idx==0):</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10348,7 +11114,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        for i in range(1,var_inprows+1):</a:t>
+            <a:t>                row=[1]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10362,7 +11128,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>            if[ i==1 ] :</a:t>
+            <a:t>            else:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10390,7 +11156,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>            else :</a:t>
+            <a:t>                arr_prev_row=arr_inp[-1]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10404,7 +11170,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                row=[1]</a:t>
+            <a:t>                for j in range(1,var_idx):</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10418,7 +11184,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                prev_row=[var_arr_init[-1]]</a:t>
+            <a:t>                    row.append(arr_prev_row[j-1]+arr_prev_row[j])</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10432,7 +11198,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                for j in range(1,i):</a:t>
+            <a:t>                row.append(1)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10446,7 +11212,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                    row.append(prev_row[j-1]+prev_row[j])</a:t>
+            <a:t>            arr_inp.append(row)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10460,7 +11226,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                row.append(1)</a:t>
+            <a:t>        return arr_inp       </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10474,7 +11240,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>            var_arr_init.append(row)</a:t>
+            <a:t>#main execute</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10488,7 +11254,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        return var_arr_init</a:t>
+            <a:t>inst_solution=Solution()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10502,39 +11268,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>#main execute</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>inst_generate=Solution()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>inst_generate.generate(var_inprows)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-MY" sz="700"/>
+            <a:t>inst_solution.generate(var_inp_rows)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10735,6 +11470,674 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4579620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6987540" y="2346960"/>
+          <a:ext cx="845820" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from typing import List</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_dict_inp={"2":["a","b","c"],"3":["d","e","f"],"4":["g","h","i"],"5":["j","k","l"],"6":["m","n","o"],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"7":["p","q","r","s"],"8":["t","u","v"],"9":["w","x","y","z"]}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Solution:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def letterCombinations(self, digits:str) -&gt; List[str]:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        result_array=[""]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        for digit in digits:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            temp_array=[]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            for i in result_array:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                for j in var_dict_inp[digit]:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    temp_array.append(i+j)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            result_array=temp_array        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return result_array</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inst_lettercomb=Solution()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>print(inst_lettercomb.letterCombinations("23"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185166</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1696241</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10395966" y="2499360"/>
+          <a:ext cx="1511075" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1889760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7002780" y="2705100"/>
+          <a:ext cx="1882140" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_inp_nums=[2,7,11,15]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_target=9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Solution:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def twoSum(self, nums:list, tgt:int) -&gt; list:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        for i in range(len(nums)):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            for j in range(i+1,len(nums)):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                if (nums[i]+nums[j]) == tgt:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    return[i,j]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inst_sol=Solution()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>inst_sol.twoSum(var_inp_nums,var_target)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19312</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3458351</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10230112" y="2697480"/>
+          <a:ext cx="3439039" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11400,11 +12803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11800,6 +13203,7 @@
         <v>119</v>
       </c>
       <c r="D25" s="25"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
@@ -11828,6 +13232,51 @@
       </c>
       <c r="D27" s="25" t="s">
         <v>186</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>45880</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
+        <v>45881</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>45882</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -11870,10 +13319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11883,28 +13332,28 @@
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.88671875" customWidth="1"/>
     <col min="5" max="5" width="29.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>175</v>
       </c>
     </row>
@@ -12010,13 +13459,13 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>21</v>
@@ -12031,19 +13480,56 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>45881</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>45882</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12999,8 +14485,104 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="14" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>45876</v>
+      </c>
+      <c r="B54" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>45881</v>
+      </c>
+      <c r="B55" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>45881</v>
+      </c>
+      <c r="B56" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>45881</v>
+      </c>
+      <c r="B57" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>45881</v>
+      </c>
+      <c r="B58" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>45882</v>
+      </c>
+      <c r="B59" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Quiz_Log.xlsx
+++ b/Daily_Quiz_Log.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2808" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2808" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upskill_New_Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Coding Challenge" sheetId="5" r:id="rId2"/>
-    <sheet name="Daily Progress" sheetId="4" r:id="rId3"/>
-    <sheet name="Notes" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Significance" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Daily Progress" sheetId="4" r:id="rId2"/>
+    <sheet name="Personal Project" sheetId="6" r:id="rId3"/>
+    <sheet name="Coding Challenge" sheetId="5" r:id="rId4"/>
+    <sheet name="Certification Planned" sheetId="7" r:id="rId5"/>
+    <sheet name="Notes" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="Significance" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Progress'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Progress'!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -501,9 +503,6 @@
   </si>
   <si>
     <t>Code</t>
-  </si>
-  <si>
-    <t>Identifying Hierarchy/Data-Structure Tree  in SQL</t>
   </si>
   <si>
     <t>comparison operators in Shell</t>
@@ -658,9 +657,6 @@
     <t>Sorting Fruit Baskets</t>
   </si>
   <si>
-    <t>revisit</t>
-  </si>
-  <si>
     <t>from Leetcode</t>
   </si>
   <si>
@@ -713,13 +709,58 @@
   </si>
   <si>
     <t>Gave working plan for Lima CR's completion to Beena - two deployments planned on 12-Sep &amp; 08-Oct</t>
+  </si>
+  <si>
+    <t>Finished on 13-Aug</t>
+  </si>
+  <si>
+    <t>Binary Tree Nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concluded Design discussion with Ahmed,Lynda to settle Origination DE Sourcing for BCBS </t>
+  </si>
+  <si>
+    <t>the-company problem  in SQL / using advnaced analytical clauses</t>
+  </si>
+  <si>
+    <t>Solved with concrete solution on 14-Aug-2025</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Generative Images using Google Gemini's Imagen and Flask</t>
+  </si>
+  <si>
+    <t>GenAI to generate Simple Images</t>
+  </si>
+  <si>
+    <t>Functions &amp; Positional Arguments to invoke Function</t>
+  </si>
+  <si>
+    <t>Transposing a File</t>
+  </si>
+  <si>
+    <t>Sat with Kyle from Sp2A Squad , and rectified the pick for GCIF_CUST_ID on top of existing PRMRY_CUST_ID since tradeline customers have a different prty_type_cd (24) other than 6(which is for GCIF) Sp2A/R3 Data released and UDL Downstreams check in Progress</t>
+  </si>
+  <si>
+    <t>(continued) Functions &amp; Positional Arguments to invoke Function with Incrementing Variable</t>
+  </si>
+  <si>
+    <t>https://www.cloudera.com/services-and-support/training/certification/cdp-generalist-exam-cdp-0011.html#</t>
+  </si>
+  <si>
+    <t>Created an Automated Python Framework to Publish a Post-Load Validation Report Summary for REDW-vs-UDL Pull</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,8 +799,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,8 +827,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -815,11 +870,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -882,6 +946,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9034,33 +9099,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3360420</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1470660</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="38" name="TextBox 37"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5768340" y="160020"/>
-          <a:ext cx="1973580" cy="228600"/>
+          <a:off x="9029700" y="9540240"/>
+          <a:ext cx="2118360" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9095,6 +9155,3934 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_applications=("Photos" "Email" "Calendar")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_update_needed=("Yes" "No" "Yes")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_applications+=("Browser")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_update_needed+=("No")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for i in ${!var_applications[@]}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            if [ "${var_update_needed[i]}" == "Yes" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                then echo "Updating ${var_applications[$i]}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            elif [ "${var_update_needed[i]}" == "No" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                then echo "${var_applications[$i]} up to date"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 echo "N/A"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            fi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9060180" y="10066020"/>
+          <a:ext cx="2103120" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*Functions </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*1 Simple Function</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>greet() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Hello"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>greet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*2 Function with Positional Arguments</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>update_one() #function with 1 Input</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Updating $1"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>update_two() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Updating $1 and $2" #function with 2 Inputs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>update_one "photos"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>update_two "photos" "Browser"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Updating Photos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Updating Photos and Browser</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*3 Function with Counting Arguments </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>count_args() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Number of Arguments : $#"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>count_args "Photos" "Browser" "Documents"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Number of Arguments : 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*4 Iterating over Arguments in Shell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print_args(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>inp_arr=("$@")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Using Array Indices:"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>for x in "${inp_arr[@]}" #loop over the values of the array</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>	echo "$x"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Using direct Positional arguments \$@"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>for y in "$@" #loop over the positional arguments</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>do </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>	echo "$y"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print_args "Photos" "Browser" "Documents"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#output </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Using array indices:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Photos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Browser</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Documents</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Using $@:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Photos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Browser</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Documents</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>*5 Returning/Incrementing over Functions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_version=2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_increment=3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>increase_version() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>((var_version+=var_increment))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo $var_version</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>result=$(increase_version)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>echo "Updating from Version $var_version to $result"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>Updating from version 2 to 5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="10256520"/>
+          <a:ext cx="2095500" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_num=5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def_greet(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  echo "Hello $1"  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def_addfile(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  num=$1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  ((num++))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  echo $num</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def_greet "World"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>filenum=$(def_addfile $var_num)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>echo "Number of Files : $filenum"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="9890760"/>
+          <a:ext cx="2179320" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_inp1=4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_inp2=5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def_add_two_numbers() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    var_num1=$1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    var_num2=$2    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    echo $((var_num1+var_num2))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rslt=$(def_add_two_numbers $var_inp1 $var_inp2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>echo "Sum of Number1 $var_inp1 and Number2 $var_inp2 is $rslt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1940560</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11379200" y="16875760"/>
+          <a:ext cx="1940560" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" u="sng"/>
+            <a:t>V1 : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from pyspark.sql import SparkSession</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from pyspark.sql.window import Window</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from pyspark.sql.functions import col,lit,max,length</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>spark=SparkSession.builder.appName("Measure_Length_Check").getOrCreate()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_select_expr=["n_mis_date_skey"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_lst_inp_columns=["N_INT_INCOME_AMT_RCY", "N_INT_EXPENSE_AMT", "N_NET_INTEREST_INCOME_RCY"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_table=spark.table("df_udl_sit.FCT_FTP_ACCT_ALT_MEASURES")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>for column_name in var_lst_inp_columns:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    var_max_exprsn=Window.partitionBy("n_mis_date_skey")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    var_max_exprsn_fnl=max(col(column_name)).over(var_max_exprsn).alias(f"max_n_int_{column_name}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    var_len_max_exprsn_fnl = length(max(col(column_name)).over(var_max_exprsn).cast("string")).alias(f"len_highest_{column_name}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("****Begin Execute*****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_table.select("*",var_max_exprsn_fnl,var_len_max_exprsn_fnl)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_table_final=df_table.distinct().filter(col("n_mis_date_skey")==20240831)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#df_table_final.show(n=5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("****File Output Export Being****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>df_table_final.coalesce(1).write.mode("overwrite").option("header","true").csv("file:///u12/LDW/Data/Scripts/Aman/len_check_outbound/Measure_Length_Check.csv")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>print("****File Output Export End****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>spark.stop()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4378960</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563600" y="16875760"/>
+          <a:ext cx="2194560" cy="345440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="1" u="sng"/>
+            <a:t>V2 :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="1" u="none"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>from pyspark.sql import SparkSession</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>from pyspark.sql.window import Window</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>from pyspark.sql.functions import col,lit,max,length</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>spark=SparkSession.builder.appName("Measure_Length_Check").config("spark.blacklist.enabled","false").getOrCreate()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>var_select_expr=[]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>var_lst_inp_columns=["N_INT_INCOME_AMT_RCY", "N_INT_EXPENSE_AMT", "N_NET_INTEREST_INCOME_RCY"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>df_table=spark.table("df_udl_sit.FCT_FTP_ACCT_ALT_MEASURES").filter(col("n_mis_date_skey")==20240831)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>for column_name in var_lst_inp_columns:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>    var_max_exprsn=max(col(column_name)).alias(f"max_{column_name}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>    var_len_max_exprsn=length(max(col(column_name)).cast("string")).alias(f"len_hghst_{column_name}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>    var_select_expr.extend([var_max_exprsn,var_len_max_exprsn])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>#main execute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print("****Begin Execute*****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>df_table_final=df_table.groupBy("n_mis_date_skey").agg(*var_select_expr)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print("****File Output Export Being****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>df_table_final.coalesce(1).write.mode("overwrite").option("header","true").csv("/user/mbbsituser/testdir/Measure_Length_Check.csv")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>print("****File Output Export End****")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800"/>
+            <a:t>spark.stop()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6715760</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6167120</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18094960" y="19029680"/>
+          <a:ext cx="6228080" cy="325120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>#version history</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>"""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>Script Purpose : To check Reconciliation post STG Physicalization Jobs for</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>1) identify if any surge in today's udl physicalized table than Yesterday's load volume</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>2) check same record pushed from TD to Hive Cl-2 UDL Inbound</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>Developed by : Amanullah Khan / Suganth Port Andamuthu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>Release Date :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>V0.1 | Remark : 20-Aug-2025 | BaselineVersion</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>"""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>import pyodbc as pyo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>import openpyxl as xl</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>import smtplib</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>from email.mime.text import MIMEText</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>from email.mime.multipart import MIMEMultipart</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>from email.mime.base import MIMEBase</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>from email import encoders</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>import sys</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>import os</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_td_server="172.31.78.122"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_td_user="00153211"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_td_pass="Maybank@002"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_op_file_loc="plp_batch_recon.xlsx"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_sender_mail="no_reply_UDLBAU@maybank.com"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_receiver_mail="UDL_BAU_SUPPORT@maybank.com"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_email_subject="UDL PLP Recon Report Test enablement by Lima DST"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_mail_host="172.31.178.20"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_mail_port=25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>td_conn_string=(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>f"DRIVER={{/opt/teradata/client/17.10/lib64/tdataodbc_sb64.so}};"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>f"DBCNAME={var_td_server};"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>f"UID={var_td_user};"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>f"PWD={var_td_pass};"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>f"LOGMECH=ldap;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>f"AUTHENTICATION=ldap;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>#mainxexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_conn=None</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_workbook=None</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>var_body_text=""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>print("Connection to Teradata Attempted")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>try:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_conn=pyo.connect(td_conn_string)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_cursor=var_conn.cursor()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_qry1=("""with redw_chk as( sel  distinct cal_dt , total_redw_acc_Base , max(Clean_Arrival_from_Source_to_REDW_fnl) over() Clean_Arrival_from_Source_to_REDW,max(Suppressed_from_Source_fnl) over() Suppressed_from_Source ,  max("%_Clean") over() "%_Clean" , max("%_Suppresed") over() "%_Suppressed" from ( sel  T1.*,  sum(cnt) over () total_redw_acc_base,  sum(Clean_Arrival_from_Source_to_REDW) over (partition by t1.cal_dt , delim_ind) Clean_Arrival_from_Source_to_REDW_fnl, (cast(Clean_Arrival_from_Source_to_REDW_fnl as decimal(10,2))/cast(total_redw_acc_base as decimal(10,2)))*100  "%_Clean" , sum(Suppressed_from_Source) over (partition by t1.cal_dt , delim_ind) Suppressed_from_Source_fnl , (cast(Suppressed_from_Source_fnl as decimal(10,2))/cast(total_redw_acc_base as decimal(10,2)))*100  "%_Suppresed"  from  ( sel   act.cal_dt , case  when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT=act.cal_dt then 'Acct came In From Source at Redw , and Closed on the Day' when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT&lt;act.cal_dt then 'Acct came In From Source at Redw , and Closed Previously' when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT&gt;act.cal_dt then 'Acct came In From Source at Redw and still Open' when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT is null then ( case  when act.ACCT_OPND_DT&gt;=act.cal_dt then 'Acct came In From Source at Redw and Acct closed date is null but Acct Open Date still Open' when act.ACCT_OPND_DT&lt;act.cal_dt then 'Acct came In From Source at Redw and Acct closed date is null but Acct Open Date lapsed' when act.ACCT_OPND_DT is null then 'Acct came In From Source at Redw and both Acct Closed &amp; Open date are Null' else 'NA-Inner'  end ) when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT=act.cal_dt then 'Acct Suppressed From Source at Redw , and Closed on the Day' when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT&lt;act.cal_dt then 'Acct Suppressed From Source at Redw , and Closed Previously' when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT&gt;act.cal_dt then 'Acct Suppressed From Source at Redw and still Open' when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT is null then ( case  when act.ACCT_OPND_DT&gt;=act.cal_dt then 'Acct Suppressed From Source at Redw and Acct closed date is null but Acct Open Date still Open' when act.ACCT_OPND_DT&lt;act.cal_dt then 'Acct Suppressed From Source at Redw and Acct closed date is null but Acct Open Date lapsed' when act.ACCT_OPND_DT is null then 'Acct Suppressed From Source at Redw and both Acct Closed &amp; Open date are Null' else 'NA-Inner'  end ) else 'NA-Main' end Redw_Ind_Status,  case  when Redw_Ind_Status like '%Acct came In From Source at Redw%' then 'Clean Arrival from Source to REDW' when Redw_Ind_Status like '%Acct Suppressed From Source at Redw%' then 'Suppressed from Source' else 'N/A'  end  delim_ind, case when delim_ind = 'Clean Arrival from Source to REDW' then cnt else 0 end Clean_Arrival_from_Source_to_REDW,  case when delim_ind = 'Suppressed from Source' then cnt else 0 end Suppressed_from_Source , count(*) cnt from  my_eprd2_vr_base.dv_acct act  where act.cal_dt in (sel d_mis_date from my_eprd2_tb_tmp.udl_common_account_summary) group by 1 ,2 ,3 ) T1    ) T2  ) sel a.cal_dt ,a.total_redw_acc_base,a.clean_arrival_from_source_to_redw , a.Suppressed_from_Source,a."%_Clean" "%_REDW_Clean_Out_Of_Source",a."%_Suppressed" "%_REDW_Suppressed_Out_Of_Source" from redw_chk a;""")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_cursor.execute(var_qry1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_columns=[column[0] for column in var_cursor.description]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        rows=var_cursor.fetchall()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_qry2=("""with redw_chk as( sel  distinct cal_dt , total_redw_acc_Base , max(Clean_Arrival_from_Source_to_REDW_fnl) over() Clean_Arrival_from_Source_to_REDW,max(Suppressed_from_Source_fnl) over() Suppressed_from_Source ,  max("%_Clean") over() "%_Clean" , max("%_Suppresed") over() "%_Suppressed" from ( sel  T1.*,  sum(cnt) over () total_redw_acc_base,  sum(Clean_Arrival_from_Source_to_REDW) over (partition by t1.cal_dt , delim_ind) Clean_Arrival_from_Source_to_REDW_fnl, (cast(Clean_Arrival_from_Source_to_REDW_fnl as decimal(10,2))/cast(total_redw_acc_base as decimal(10,2)))*100  "%_Clean" , sum(Suppressed_from_Source) over (partition by t1.cal_dt , delim_ind) Suppressed_from_Source_fnl , (cast(Suppressed_from_Source_fnl as decimal(10,2))/cast(total_redw_acc_base as decimal(10,2)))*100  "%_Suppresed"  from  ( sel   act.cal_dt , case  when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT=act.cal_dt then 'Acct came In From Source at Redw , and Closed on the Day' when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT&lt;act.cal_dt then 'Acct came In From Source at Redw , and Closed Previously' when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT&gt;act.cal_dt then 'Acct came In From Source at Redw and still Open' when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT is null then ( case  when act.ACCT_OPND_DT&gt;=act.cal_dt then 'Acct came In From Source at Redw and Acct closed date is null but Acct Open Date still Open' when act.ACCT_OPND_DT&lt;act.cal_dt then 'Acct came In From Source at Redw and Acct closed date is null but Acct Open Date lapsed' when act.ACCT_OPND_DT is null then 'Acct came In From Source at Redw and both Acct Closed &amp; Open date are Null' else 'NA-Inner'  end ) when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT=act.cal_dt then 'Acct Suppressed From Source at Redw , and Closed on the Day' when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT&lt;act.cal_dt then 'Acct Suppressed From Source at Redw , and Closed Previously' when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT&gt;act.cal_dt then 'Acct Suppressed From Source at Redw and still Open' when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT is null then ( case  when act.ACCT_OPND_DT&gt;=act.cal_dt then 'Acct Suppressed From Source at Redw and Acct closed date is null but Acct Open Date still Open' when act.ACCT_OPND_DT&lt;act.cal_dt then 'Acct Suppressed From Source at Redw and Acct closed date is null but Acct Open Date lapsed' when act.ACCT_OPND_DT is null then 'Acct Suppressed From Source at Redw and both Acct Closed &amp; Open date are Null' else 'NA-Inner'  end ) else 'NA-Main' end Redw_Ind_Status,  case  when Redw_Ind_Status like '%Acct came In From Source at Redw%' then 'Clean Arrival from Source to REDW' when Redw_Ind_Status like '%Acct Suppressed From Source at Redw%' then 'Suppressed from Source' else 'N/A'  end  delim_ind, case when delim_ind = 'Clean Arrival from Source to REDW' then cnt else 0 end Clean_Arrival_from_Source_to_REDW,  case when delim_ind = 'Suppressed from Source' then cnt else 0 end Suppressed_from_Source , count(*) cnt from  my_eprd2_vr_base.dv_acct act  where act.cal_dt in (sel d_mis_date from my_eprd2_tb_tmp.udl_common_account_summary) group by 1 ,2 ,3 ) T1    ) T2  ) , udl_chk as ( sel distinct d_mis_date , total_udl_acc_base ,  max(Clean_Arrival_from_Source_to_UDL_fnl) over() Clean_Arrival_from_Source_to_UDL , max(Suppressed_from_Source_fnl) over() Suppressed_from_Source, max("%_Clean") over() "%_Clean" , max("%_Suppresed") over() "%_Suppressed" from ( sel  T1.* , sum(cnt) over () total_udl_acc_base,  sum(Clean_Arrival_from_Source_to_UDL) over (partition by t1.d_mis_date , delim_ind) Clean_Arrival_from_Source_to_UDL_fnl, (cast(Clean_Arrival_from_Source_to_UDL_fnl as decimal(10,2))/cast(total_udl_acc_base as decimal(10,2)))*100  "%_Clean" , sum(Suppressed_from_Source) over (partition by t1.d_mis_date , delim_ind) Suppressed_from_Source_fnl , (cast(Suppressed_from_Source_fnl as decimal(10,2))/cast(total_udl_acc_base as decimal(10,2)))*100  "%_Suppresed"  from ( sel scas_dly.d_mis_date ,  case  when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT=act.cal_dt then 'Acct came In From Source at Redw and to UDL , and Closed on the Day' when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT&lt;act.cal_dt then 'Acct came In From Source at Redw and to UDL , and Closed Previously' when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT&gt;act.cal_dt then 'Acct came In From Source at Redw and to UDL  and still Open' when act.acct_rec_del_flg =0 and act.ACCT_CLSD_DT is null then ( case  when act.ACCT_OPND_DT&gt;=act.cal_dt then 'Acct came In From Source at Redw and to UDL  and Acct closed date is null but Acct Open Date still Open' when act.ACCT_OPND_DT&lt;act.cal_dt then 'Acct came In From Source at Redw and to UDL and Acct closed date is null but Acct Open Date lapsed' when act.ACCT_OPND_DT is null then 'Acct came In From Source at Redw and to UDL  and both Acct Closed &amp; Open date are Null' else 'NA-Inner'  end ) when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT=act.cal_dt then 'Acct Suppressed From Source at Redw and to UDL , and Closed on the Day' when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT&lt;act.cal_dt then 'Acct Suppressed From Source at Redw and to UDL , and Closed Previously' when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT&gt;act.cal_dt then 'Acct Suppressed From Source at Redw and to UDL and still Open' when act.acct_rec_del_flg =1 and act.ACCT_CLSD_DT is null then ( case  when act.ACCT_OPND_DT&gt;=act.cal_dt then 'Acct Suppressed From Source at Redw and to UDL and Acct closed date is null but Acct Open Date still Open' when act.ACCT_OPND_DT&lt;act.cal_dt then 'Acct Suppressed From Source at Redw and to UDL  Acct closed date is null but Acct Open Date lapsed' when act.ACCT_OPND_DT is null then 'Acct Suppressed From Source at Redw and to UDL  and both Acct Closed &amp; Open date are Null' else 'NA-Inner'  end ) else 'NA-Main' end UDL_Ind_Status, case  when UDL_Ind_Status like '%Acct came In From Source at Redw%' then 'Clean Arrival from Source to REDW and to UDL' when UDL_Ind_Status like '%Acct Suppressed From Source at Redw%' then 'Suppressed from Source' else 'N/A'  end  delim_ind, case when delim_ind = 'Clean Arrival from Source to REDW and to UDL' then cnt else 0 end Clean_Arrival_from_Source_to_UDL, case when delim_ind = 'Suppressed from Source' then cnt else 0 end Suppressed_from_Source, count(*) cnt from  my_eprd2_vr_base.dv_acct act inner join my_eprd2_tb_tmp.udl_common_account_summary  scas_dly on  act.cal_dt = scas_dly.d_mis_date and act.acct_Type_cd = scas_dly.v_acct_Type and act.acct_id=scas_dly.v_account_number where act.cal_dt=scas_dly.d_mis_date group by 1 ,2  ,3 ) T1 )T2 )  sel b.total_udl_acc_base, b.clean_arrival_from_source_to_udl , b.Suppressed_from_Source,  cast(b.total_udl_acc_base as decimal(10,2))/cast(a.total_redw_acc_base as decimal(10,2))*100 "%_UDL_Pulled_out_of_REDW"  from redw_chk a inner  join udl_chk b on 1=1 ;""")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_cursor.execute(var_qry2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_columns2=[column[0] for column in var_cursor.description]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        rows2=var_cursor.fetchall()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        print(f"Executing Query-1 {var_qry1}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        print(f"Query Execution Completed. Writing to Excel File {var_op_file_loc}...")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_workbook=xl.Workbook()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_sheet=var_workbook.active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_sheet.append(var_columns)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body="&lt;html&gt;&lt;body&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="This is a report to recon Volume Pull Statistics for REDW V/s UDL Comparison"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;h3&gt;REDW Account Base pulled from Source Stats:&lt;/h3&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;table border='1' cellpadding='5' cellspacing='0'&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;tr style='background-color:#f2f2f2;'&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        for header in var_columns:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_html_body+=f"&lt;th&gt;{header}&lt;/th&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;/tr&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        for row in rows:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            #print(row)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_sheet.append(tuple(row))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_html_body+="&lt;tr&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            for cell in row:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>                var_html_body+=f"&lt;td&gt;{cell}&lt;/td&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_html_body+="&lt;/tr&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;/table&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;h3&gt;UDL Account Base Pulled from REDW Stats"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;table border='1' cellpadding='5' cellspacing='0'&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;tr style='background-color:#f2f2f2;'&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        for header in var_columns2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_html_body+=f"&lt;th&gt;{header}&lt;/th&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;tr&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        for row in rows2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            for cell in row :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>                var_html_body+=f"&lt;td&gt;{cell}&lt;/td&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_html_body+="&lt;/tr&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;/table&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_html_body+="&lt;/body&gt;&lt;/html&gt;"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_workbook.save(var_op_file_loc)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        print(f"Output written Succesfully to {var_op_file_loc}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        print(f"Sending Mail to {var_receiver_mail}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        """mail config start"""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_msg=MIMEMultipart()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_msg['From']=var_sender_mail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_msg['To']=var_receiver_mail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_msg['Subject']=var_email_subject</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_body_text+=" | ".join(var_columns)+"\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        for row in rows:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_body_text+=f"{' | '.join(map(str,row))}\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_body_text+=" | ".join(var_columns2)+"\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        for row in rows2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_body_text+=f"{' | '.join(map(str,row))}\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        part1=MIMEText(var_body_text,'plain')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        part2=MIMEText(var_html_body,'html')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        #var_msg.attach(part1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        var_msg.attach(part2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        with smtplib.SMTP(var_mail_host,var_mail_port) as server :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            server.send_message(var_msg)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        """mail config end"""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        print("Email sent Succesfully")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>except pyo.Error as exc:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        print(f"Connection Error : {exc.args[0]}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        sys.exit(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>finally:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        if var_conn:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_conn.close()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            print("Connection to Teradata Disconnected")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>        if var_workbook:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>            var_workbook.close()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1211580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="746760"/>
+          <a:ext cx="2453640" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" u="sng"/>
+            <a:t>Installing the needed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" u="sng" baseline="0"/>
+            <a:t> module</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#modules to install</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>pip install google-genai pillow</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1668780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1226820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3002280" y="723900"/>
+          <a:ext cx="2331720" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" u="sng"/>
+            <a:t>Setting up the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" u="sng" baseline="0"/>
+            <a:t> Configuration for the Application to communicate with Gemini API</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from google import genai</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from google.genai import types</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>import os</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_api_key=os.getenv("GEMINI_API_KEY")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>if not var_api_key:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    raise valueError("GEMINI_API_KEY not found in the environment variables. Set it before running the Script.")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_base_url=os.getenv("GEMINI_BASE_URL")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>if not var_base_url:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>    raise ValueError("GEMINI_BASE_URL not found in environment variables. Set it before running the Script.")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>var_client=genai.Client(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>api_key=var_api_key,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>http_options=types.HttpOptions(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>base_url=var_base_url,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5471160" y="510540"/>
+          <a:ext cx="1684020" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" u="sng"/>
+            <a:t>Generating a Simple Image</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>#import</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>from google.genai import types</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>var_prompt="A serene sunset over a Mountain Range"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>var_response=var_client.models.generate_images(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>model='imagen-3.0-generate-002',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>prompt=var_prompt,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>config=types.GenerateImagesConfig(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>number_of_images=1,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>aspect_ratio="16:9",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" u="none"/>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>830580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604760" y="556260"/>
+          <a:ext cx="2240280" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" i="1" u="sng"/>
+            <a:t>Processing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="1" i="1" u="sng" baseline="0"/>
+            <a:t> and Displaying the Generated Image:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>from PIL import Image</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>from io import BytesIO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>import os</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>if response and hasattr(response, 'generated_images') and response.generated_images:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>    generated_image=response.generated_images[0]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>    image=Image.open(BytesIO(generated_image.image.image_bytes))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>    output_path=os.path.join("static","images","generated_image.png")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>    os.makedirs(os.path.dirname(output_path),exist_ok=True)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>    image.save(output_path)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>else:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0" i="1" u="none"/>
+            <a:t>    print("Error: Empty response or no images generated")</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1059180</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10050780" y="563880"/>
+          <a:ext cx="3307080" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="1" u="sng"/>
+            <a:t>End to End Image Generation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from google import genai</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from google.genai import types</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from PIL import Image</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from io import BytesIO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import os</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#declare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>api_key=os.getenv("GEMINI_API_KEY")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if not api_key:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    raise ValueError("GEMINI_API_KEY not found in Environment Variables. Set it before running the Script")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>base_url=os.getenv("GEMINI_BASE_URL")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if not base_url:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    raise ValueError("GEMINI_BASE_URL not found in Environment Variables. Set it before running the script ")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>client=genai.Client(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>api_key=api_key,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http_options=types.HttpOptions(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    base_url=base_url,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>),   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>prompt="Martial Arts"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#TODO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>response=client.models.generate_images(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>model='imagen-3.0-generate-002',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>prompt=prompt,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>config=types.GenerateImagesConfig(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>number_of_images=1,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aspect_ratio="16:9",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#mainexecute</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if response and hasattr(response,'generated_images') and response.generated_images:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    generated_image=response.generated_images[0]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    image=Image.open(BytesIO(generated_image.image.image_bytes))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    output_path=os.path.join("static","images","generated_image.png")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    os.makedirs(os.path.dirname(output_path),exist_ok=True)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    image.save(output_path)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    print("Error: Empty response or no Images generated")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="800" b="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7033260" y="160020"/>
+          <a:ext cx="2697480" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>with seq_employees as (select  a.company_code , a.founder ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>dense_rank() over(partition by a.company_code order by b.lead_manager_code) tot_no_of_lead_managers,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>dense_rank() over(partition by a.company_code order by c.lead_manager_code,c.senior_manager_code) tot_no_of_senior_managers,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>dense_rank() over(partition by a.company_code order by d.lead_manager_code,d.senior_manager_code,d.manager_code) tot_no_of_managers,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>dense_rank() over(partition by a.company_code order by e.lead_manager_code,e.senior_manager_code,e.manager_code,e.employee_code) tot_no_of_employees</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>company a</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>inner join lead_manager b on a.company_code=b.company_code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>inner join senior_manager c on b.company_code=c.company_code and b.lead_manager_code=c.lead_manager_code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>inner join manager d on c.company_code=d.company_code and c.lead_manager_code = d.lead_manager_code and c.senior_manager_code=d.senior_manager_code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>inner join employee e on d.company_code=e.company_code and d.lead_manager_code=e.lead_manager_code and d.senior_manager_code=e.senior_manager_code and d.manager_code=e.manager_code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>--where a.founder ='Angela'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-MY" sz="700"/>
             <a:t>select </a:t>
           </a:r>
@@ -9102,199 +13090,43 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
-            <a:t>distinct </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>t1.company_code , t1.founder,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>max(no_of_lead_managers) over(partition by t1.company_code,t1.founder) tot_lead_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>max(no_of_senior_managers) over(partition by t1.company_code,t1.founder) tot_senior_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>max(no_of_managers) over(partition by t1.company_code,t1.founder) tot_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>max(no_of_employee) over(partition by t1.company_code,t1.founder) tot_employees</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>from</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>(   </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>SELECT</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        cc.company_code,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        cc.founder,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        DENSE_RANK() OVER (PARTITION BY lm.company_code ORDER BY lm.lead_manager_code) AS no_of_lead_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        DENSE_RANK() OVER (PARTITION BY sm.company_code ORDER BY sm.lead_manager_code,sm.senior_manager_code) AS no_of_senior_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        DENSE_RANK() OVER (PARTITION BY mgr.company_code ORDER BY mgr.lead_manager_code, mgr.senior_manager_code,mgr.manager_code) AS no_of_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t> DENSE_RANK() OVER (PARTITION BY emp.company_code order by emp.lead_manager_code, emp.senior_manager_code,mgr.manager_code, emp.employee_code) AS no_of_employee</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    FROM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        company cc</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    INNER JOIN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        lead_manager lm ON cc.company_code = lm.company_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    INNER JOIN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        senior_manager sm ON lm.company_code = sm.company_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>                         AND lm.lead_manager_code = sm.lead_manager_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    INNER JOIN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        manager mgr ON sm.company_code = mgr.company_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>                   AND sm.lead_manager_code = mgr.lead_manager_code          </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>                   AND sm.senior_manager_code = mgr.senior_manager_code      </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    INNER JOIN EMPLOYEE emp on</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    mgr.company_code=emp.company_code and </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    mgr.lead_manager_code=emp.lead_manager_code and </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    mgr.senior_manager_code=emp.senior_manager_code and </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    mgr.manager_code=emp.manager_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>) T1 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>;</a:t>
+            <a:t>distinct company_code , founder , </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>max(tot_no_of_lead_managers) over(partition by company_code,founder) "Tot No of Lead Managers" ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>max(tot_no_of_senior_managers) over(partition by company_code,founder) "Tot No of Senior Managers" ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>max(tot_no_of_managers) over(partition by company_code,founder) "Tot No of Managers" ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>max(tot_no_of_employees) over(partition by company_code,founder) "Tot No of Employees"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from seq_employees </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>order by company_code asc ;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9422,277 +13254,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>807720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7078980" y="99060"/>
-          <a:ext cx="1699260" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>select </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>distinct </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>t1.company_code , t1.founder,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>max(no_of_lead_managers) over(partition by t1.company_code,t1.founder) tot_lead_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>max(no_of_senior_managers) over(partition by t1.company_code,t1.founder) tot_senior_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>max(no_of_managers) over(partition by t1.company_code,t1.founder) tot_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>max(no_of_employee) over(partition by t1.company_code,t1.founder) tot_employees</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>from</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>(   </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>SELECT</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        cc.company_code,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        cc.founder,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        DENSE_RANK() OVER (PARTITION BY lm.company_code ORDER BY lm.lead_manager_code) AS no_of_lead_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        DENSE_RANK() OVER (PARTITION BY sm.company_code ORDER BY sm.lead_manager_code,sm.senior_manager_code) AS no_of_senior_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        DENSE_RANK() OVER (PARTITION BY mgr.company_code ORDER BY mgr.lead_manager_code, mgr.senior_manager_code,mgr.manager_code) AS no_of_managers,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t> DENSE_RANK() OVER (PARTITION BY emp.company_code order by emp.lead_manager_code, emp.senior_manager_code,mgr.manager_code, emp.employee_code) AS no_of_employee</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    FROM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        company cc</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    INNER JOIN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        lead_manager lm ON cc.company_code = lm.company_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    INNER JOIN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        senior_manager sm ON lm.company_code = sm.company_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>                         AND lm.lead_manager_code = sm.lead_manager_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    INNER JOIN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>        manager mgr ON sm.company_code = mgr.company_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>                   AND sm.lead_manager_code = mgr.lead_manager_code          </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>                   AND sm.senior_manager_code = mgr.senior_manager_code      </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    INNER JOIN EMPLOYEE emp on</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    mgr.company_code=emp.company_code and </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    mgr.lead_manager_code=emp.lead_manager_code and </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    mgr.senior_manager_code=emp.senior_manager_code and </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    mgr.manager_code=emp.manager_code</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>) T1 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>373380</xdr:rowOff>
+      <xdr:rowOff>396240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9701,7 +13271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562600" y="822960"/>
+          <a:off x="7025640" y="845820"/>
           <a:ext cx="2186940" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9738,103 +13308,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
-            <a:t>select hacker_id , name from (</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>with CTE_multipl_top_score as (</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>select </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>submission_id,hacker_id,challenge_id , max_score , high_score,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>case when max(high_score) over(partition by hacker_id )&gt;1 then 'Y' else 'N' end chk_flg</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>from (</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>select submission_id, hacker_id,challenge_id ,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>max(score) over(partition by hacker_id,submission_id,challenge_id) max_score,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>case when score=120 then </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>row_number() over(partition by hacker_id order by submission_id,challenge_id,score)  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>else 0 end high_score</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>from</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>submissions </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>where score=120</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>) submn</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>) </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>select  distinct b.hacker_id, b.name , a.high_score</a:t>
+            <a:t>select case when b.grade&lt;8 then NULL else a.name end name ,b.grade ,a.marks </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9846,31 +13320,25 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="700"/>
-            <a:t>CTE_multipl_top_score a </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>inner join hackers b on a.hacker_id=b.hacker_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>where chk_flg='Y' </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>order by a.high_Score desc,b.hacker_id asc </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>);</a:t>
+            <a:t>students a </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>inner join grades b on </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>a.marks between b.min_mark and b.max_mark</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>order by b.grade desc , (case when b.grade&lt;8 then NULL else a.name end) asc ;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12140,33 +15608,28 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1940560</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1965960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11379200" y="16875760"/>
-          <a:ext cx="1940560" cy="304800"/>
+          <a:off x="6995160" y="2895600"/>
+          <a:ext cx="1965960" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12201,172 +15664,134 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-MY" sz="700" b="1" u="sng"/>
-            <a:t>V1 : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>#import</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>from pyspark.sql import SparkSession</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>from pyspark.sql.window import Window</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>from pyspark.sql.functions import col,lit,max,length</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>#declare</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>spark=SparkSession.builder.appName("Measure_Length_Check").getOrCreate()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>var_select_expr=["n_mis_date_skey"]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>var_lst_inp_columns=["N_INT_INCOME_AMT_RCY", "N_INT_EXPENSE_AMT", "N_NET_INTEREST_INCOME_RCY"]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>#define</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>df_table=spark.table("df_udl_sit.FCT_FTP_ACCT_ALT_MEASURES")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>for column_name in var_lst_inp_columns:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    var_max_exprsn=Window.partitionBy("n_mis_date_skey")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    var_max_exprsn_fnl=max(col(column_name)).over(var_max_exprsn).alias(f"max_n_int_{column_name}")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>    var_len_max_exprsn_fnl = length(max(col(column_name)).over(var_max_exprsn).cast("string")).alias(f"len_highest_{column_name}")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>#main execute</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>print("****Begin Execute*****")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>df_table.select("*",var_max_exprsn_fnl,var_len_max_exprsn_fnl)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>df_table_final=df_table.distinct().filter(col("n_mis_date_skey")==20240831)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>#df_table_final.show(n=5)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>print("****File Output Export Being****")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>df_table_final.coalesce(1).write.mode("overwrite").option("header","true").csv("file:///u12/LDW/Data/Scripts/Aman/len_check_outbound/Measure_Length_Check.csv")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>print("****File Output Export End****")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="700"/>
-            <a:t>spark.stop()</a:t>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>select distinct </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>a.n , </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>case when a.p is null then 'Root'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>case when b.p is null then 'Leaf' else 'Inner' end</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>end node_ind</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>from BST a</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>left join bst b on a.n=b.p</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700"/>
+            <a:t>order by a.n;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>159128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233326</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10218420" y="2848988"/>
+          <a:ext cx="3982366" cy="253418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2184400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:colOff>4564380</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4378960</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1965960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13563600" y="16875760"/>
-          <a:ext cx="2194560" cy="345440"/>
+          <a:off x="6972300" y="3375660"/>
+          <a:ext cx="1988820" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12401,140 +15826,394 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-MY" sz="800" b="1" u="sng"/>
-            <a:t>V2 :</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800" b="1" u="none"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>#import</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>from pyspark.sql import SparkSession</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>from pyspark.sql.window import Window</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>from pyspark.sql.functions import col,lit,max,length</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#!/bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>#declare</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>spark=SparkSession.builder.appName("Measure_Length_Check").config("spark.blacklist.enabled","false").getOrCreate()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>var_select_expr=[]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>var_lst_inp_columns=["N_INT_INCOME_AMT_RCY", "N_INT_EXPENSE_AMT", "N_NET_INTEREST_INCOME_RCY"]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var_inp_file="file.txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>#define</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>df_table=spark.table("df_udl_sit.FCT_FTP_ACCT_ALT_MEASURES").filter(col("n_mis_date_skey")==20240831)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>for column_name in var_lst_inp_columns:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>    var_max_exprsn=max(col(column_name)).alias(f"max_{column_name}")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>    var_len_max_exprsn=length(max(col(column_name)).cast("string")).alias(f"len_hghst_{column_name}")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>    var_select_expr.extend([var_max_exprsn,var_len_max_exprsn])</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>#main execute</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>print("****Begin Execute*****")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>df_table_final=df_table.groupBy("n_mis_date_skey").agg(*var_select_expr)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>print("****File Output Export Being****")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>df_table_final.coalesce(1).write.mode("overwrite").option("header","true").csv("/user/mbbsituser/testdir/Measure_Length_Check.csv")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>print("****File Output Export End****")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="800"/>
-            <a:t>spark.stop()</a:t>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>awk '</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for (i=1 ; i&lt;=NF ; i++) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    if (NR==1) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    s[i]=$i;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    } else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    s[i]=s[i] " " $i;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>} END {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for (i=1; i&lt;=NF; i++)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    print s[i];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' &lt; "$var_inp_file"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#mainexecute</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2690696</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9136380" y="3093721"/>
+          <a:ext cx="3765116" cy="167639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12803,11 +16482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13113,7 +16792,7 @@
         <v>119</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="29"/>
@@ -13123,13 +16802,13 @@
         <v>45866</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="29"/>
@@ -13139,13 +16818,13 @@
         <v>45869</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -13154,7 +16833,7 @@
         <v>45870</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>119</v>
@@ -13173,7 +16852,7 @@
         <v>119</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -13182,13 +16861,13 @@
         <v>45874</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="21"/>
     </row>
@@ -13197,7 +16876,7 @@
         <v>45875</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>119</v>
@@ -13216,7 +16895,7 @@
         <v>119</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -13231,7 +16910,7 @@
         <v>119</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -13246,7 +16925,7 @@
         <v>119</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -13255,13 +16934,13 @@
         <v>45881</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -13270,14 +16949,60 @@
         <v>45882</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>195</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>45883</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
+        <v>45888</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <v>45889</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13319,10 +17044,1174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.6640625" customWidth="1"/>
+    <col min="4" max="4" width="98.77734375" customWidth="1"/>
+    <col min="5" max="5" width="90.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45726</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>45727</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>45728</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>45729</v>
+      </c>
+      <c r="B5" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>45733</v>
+      </c>
+      <c r="B6" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>45733</v>
+      </c>
+      <c r="B7" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>45733</v>
+      </c>
+      <c r="B8" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>45734</v>
+      </c>
+      <c r="B9" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>45735</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>45735</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>45736</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>45737</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>45740</v>
+      </c>
+      <c r="B14" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>45741</v>
+      </c>
+      <c r="B15" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>45743</v>
+      </c>
+      <c r="B16" s="12">
+        <v>45717</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>45744</v>
+      </c>
+      <c r="B17" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>45744</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>45749</v>
+      </c>
+      <c r="B19" s="8">
+        <v>45748</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>45749</v>
+      </c>
+      <c r="B20" s="8">
+        <v>45748</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>45750</v>
+      </c>
+      <c r="B21" s="8">
+        <v>45748</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>45754</v>
+      </c>
+      <c r="B22" s="8">
+        <v>45748</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>45756</v>
+      </c>
+      <c r="B23" s="8">
+        <v>45748</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B24" s="8">
+        <v>45748</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>45758</v>
+      </c>
+      <c r="B25" s="8">
+        <v>45748</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>45761</v>
+      </c>
+      <c r="B26" s="8">
+        <v>45748</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>45762</v>
+      </c>
+      <c r="B27" s="8">
+        <v>45748</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>45852</v>
+      </c>
+      <c r="B28" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>45852</v>
+      </c>
+      <c r="B29" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>45853</v>
+      </c>
+      <c r="B30" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>45853</v>
+      </c>
+      <c r="B31" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>45854</v>
+      </c>
+      <c r="B32" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>45854</v>
+      </c>
+      <c r="B33" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>45854</v>
+      </c>
+      <c r="B34" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>45855</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>45855</v>
+      </c>
+      <c r="B36" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>45856</v>
+      </c>
+      <c r="B37" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>45856</v>
+      </c>
+      <c r="B38" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>45859</v>
+      </c>
+      <c r="B39" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>45859</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>45861</v>
+      </c>
+      <c r="B41" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>45861</v>
+      </c>
+      <c r="B42" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>45861</v>
+      </c>
+      <c r="B43" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>45862</v>
+      </c>
+      <c r="B44" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>45863</v>
+      </c>
+      <c r="B45" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B46" s="17">
+        <v>45839</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>45867</v>
+      </c>
+      <c r="B47" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>45868</v>
+      </c>
+      <c r="B48" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>45869</v>
+      </c>
+      <c r="B49" s="8">
+        <v>45839</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>45870</v>
+      </c>
+      <c r="B50" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>45873</v>
+      </c>
+      <c r="B51" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>45875</v>
+      </c>
+      <c r="B52" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>45876</v>
+      </c>
+      <c r="B53" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>45876</v>
+      </c>
+      <c r="B54" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>45881</v>
+      </c>
+      <c r="B55" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>45881</v>
+      </c>
+      <c r="B56" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>45881</v>
+      </c>
+      <c r="B57" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>45881</v>
+      </c>
+      <c r="B58" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>45882</v>
+      </c>
+      <c r="B59" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>45883</v>
+      </c>
+      <c r="B60" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B61" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>45890</v>
+      </c>
+      <c r="B62" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>45883</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13354,7 +18243,7 @@
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -13368,11 +18257,13 @@
         <v>147</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="G2" s="21" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
@@ -13385,7 +18276,7 @@
         <v>147</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -13402,13 +18293,13 @@
         <v>147</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
@@ -13418,10 +18309,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>172</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -13435,10 +18326,10 @@
         <v>83</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -13452,14 +18343,14 @@
         <v>83</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -13471,10 +18362,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -13485,17 +18376,17 @@
         <v>45881</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -13504,17 +18395,51 @@
         <v>45882</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>45882</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>45888</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13523,1077 +18448,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="144.6640625" customWidth="1"/>
-    <col min="4" max="4" width="98.77734375" customWidth="1"/>
-    <col min="5" max="5" width="90.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>45726</v>
-      </c>
-      <c r="B2" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>45727</v>
-      </c>
-      <c r="B3" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>45728</v>
-      </c>
-      <c r="B4" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>45729</v>
-      </c>
-      <c r="B5" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>45733</v>
-      </c>
-      <c r="B6" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>45733</v>
-      </c>
-      <c r="B7" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>45733</v>
-      </c>
-      <c r="B8" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>45734</v>
-      </c>
-      <c r="B9" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>45735</v>
-      </c>
-      <c r="B10" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>45735</v>
-      </c>
-      <c r="B11" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>45736</v>
-      </c>
-      <c r="B12" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>45737</v>
-      </c>
-      <c r="B13" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>45740</v>
-      </c>
-      <c r="B14" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>45741</v>
-      </c>
-      <c r="B15" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>45743</v>
-      </c>
-      <c r="B16" s="12">
-        <v>45717</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>45744</v>
-      </c>
-      <c r="B17" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>45744</v>
-      </c>
-      <c r="B18" s="8">
-        <v>45717</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>45749</v>
-      </c>
-      <c r="B19" s="8">
-        <v>45748</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>45749</v>
-      </c>
-      <c r="B20" s="8">
-        <v>45748</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>45750</v>
-      </c>
-      <c r="B21" s="8">
-        <v>45748</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>45754</v>
-      </c>
-      <c r="B22" s="8">
-        <v>45748</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>45756</v>
-      </c>
-      <c r="B23" s="8">
-        <v>45748</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>45757</v>
-      </c>
-      <c r="B24" s="8">
-        <v>45748</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>45758</v>
-      </c>
-      <c r="B25" s="8">
-        <v>45748</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>45761</v>
-      </c>
-      <c r="B26" s="8">
-        <v>45748</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>45762</v>
-      </c>
-      <c r="B27" s="8">
-        <v>45748</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>45852</v>
-      </c>
-      <c r="B28" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>45852</v>
-      </c>
-      <c r="B29" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>45853</v>
-      </c>
-      <c r="B30" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>45853</v>
-      </c>
-      <c r="B31" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>45854</v>
-      </c>
-      <c r="B32" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>45854</v>
-      </c>
-      <c r="B33" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>45854</v>
-      </c>
-      <c r="B34" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>45855</v>
-      </c>
-      <c r="B35" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>45855</v>
-      </c>
-      <c r="B36" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>45856</v>
-      </c>
-      <c r="B37" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>45856</v>
-      </c>
-      <c r="B38" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>45859</v>
-      </c>
-      <c r="B39" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>45859</v>
-      </c>
-      <c r="B40" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>45861</v>
-      </c>
-      <c r="B41" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>45861</v>
-      </c>
-      <c r="B42" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>45861</v>
-      </c>
-      <c r="B43" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>45862</v>
-      </c>
-      <c r="B44" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>45863</v>
-      </c>
-      <c r="B45" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>45863</v>
-      </c>
-      <c r="B46" s="17">
-        <v>45839</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>45867</v>
-      </c>
-      <c r="B47" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>45868</v>
-      </c>
-      <c r="B48" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>45869</v>
-      </c>
-      <c r="B49" s="8">
-        <v>45839</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>45870</v>
-      </c>
-      <c r="B50" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>45873</v>
-      </c>
-      <c r="B51" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>45875</v>
-      </c>
-      <c r="B52" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>45876</v>
-      </c>
-      <c r="B53" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>45876</v>
-      </c>
-      <c r="B54" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>45881</v>
-      </c>
-      <c r="B55" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>45881</v>
-      </c>
-      <c r="B56" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>45881</v>
-      </c>
-      <c r="B57" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>45881</v>
-      </c>
-      <c r="B58" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>45882</v>
-      </c>
-      <c r="B59" s="8">
-        <v>45870</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="14" t="s">
-        <v>44</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -14656,7 +18531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
